--- a/Gen_3/out/4.xlsx
+++ b/Gen_3/out/4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B219"/>
+  <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,11 @@
           <t>product_name_x</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ПВХ Logicroof V-RP 1,5 мм мембрана серая 2,10x20 м</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -562,7 +566,11 @@
           <t>description_x</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Кровельная полимерная мембрана на основе высококачественного пластифицированного поливинилхлорида (ПВХ)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1499,7 +1507,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>gen_middle_len</t>
+          <t>gen_smog_temp</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -1507,7 +1515,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>middle_mass_los</t>
+          <t>gen_middle_len</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -1515,7 +1523,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>gen_group_by_smog_temp</t>
+          <t>gen_middle_mass_los</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -1523,7 +1531,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>gen_group_by_len</t>
+          <t>gen_combustion_time</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -1531,15 +1539,19 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>gen_group_by_mass_los</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
+          <t>gen_babble</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>gen_group_by_buble</t>
+          <t>gen_group_by_smog_temp</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -1547,7 +1559,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>gen_match</t>
+          <t>gen_group_by_len</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -1555,132 +1567,184 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>flam_report_id</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>1940180191</v>
-      </c>
+          <t>gen_group_by_mass_los</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>flam_report_date</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>27.12.2024</t>
-        </is>
-      </c>
+          <t>gen_group_by_combustion</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>flam_lab</t>
+          <t>gen_group_by_buble</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>АО "ЦСИ "Огнестойкость""</t>
+          <t>Г1</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>flam_investigator</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
+          <t>gen_comb_group</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Г1</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>flam_date_of_product_coming</t>
+          <t>gen_match</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>Соответствует</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>flam_date_of_exp</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2024-12-23</t>
-        </is>
+          <t>flam_report_id</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1940180191</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>flam_report_link</t>
+          <t>flam_report_date</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://disk.yandex.ru/i/nKn7G581a8zh7g</t>
+          <t>27.12.2024</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>flam_type_of_osn</t>
+          <t>flam_lab</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Асбоцементный лист, толщиной 10 или 12 мм</t>
+          <t>АО "ЦСИ "Огнестойкость""</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>flam_density_of_heat_flux</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>30</v>
-      </c>
+          <t>flam_investigator</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
+          <t>flam_date_of_product_coming</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>2024-12-17</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>139</v>
+          <t>flam_date_of_exp</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2024-12-23</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
+          <t>flam_report_link</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://disk.yandex.ru/i/nKn7G581a8zh7g</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>flam_type_of_osn</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Асбоцементный лист, толщиной 10 или 12 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>flam_density_of_heat_flux</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>flam</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>flam_time</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
           <t>flam_dop_inf</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>0' – начало испытания;
 0'14” – коробление на поверхности образца;
@@ -1694,85 +1758,85 @@
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>exp_num</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>flam_amb_temp</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>flam_amb_presue</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>99,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>flam_amb_moist</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>flam_density_of_heat_flux</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>20</v>
-      </c>
-    </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>flam</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
+          <t>exp_num</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>flam_time</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr"/>
+          <t>flam_amb_temp</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
+          <t>flam_amb_presue</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>99,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>flam_amb_moist</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>flam_density_of_heat_flux</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>flam</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>flam_time</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
           <t>flam_dop_inf</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>0' – начало испытания;
 1'35” – частичное вспучивание на поверхности образца;
@@ -1790,55 +1854,55 @@
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="inlineStr">
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
         <is>
           <t>exp_num</t>
         </is>
       </c>
-      <c r="B152" t="n">
+      <c r="B157" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
         <is>
           <t>flam_density_of_heat_flux</t>
         </is>
       </c>
-      <c r="B153" t="n">
+      <c r="B158" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
         <is>
           <t>flam</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="inlineStr">
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
         <is>
           <t>flam_time</t>
         </is>
       </c>
-      <c r="B155" t="n">
+      <c r="B160" t="n">
         <v>418</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="inlineStr">
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
         <is>
           <t>flam_dop_inf</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>0' – начало испытания;
 0'10” – коробление на поверхности образца;
@@ -1855,55 +1919,55 @@
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="inlineStr">
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
         <is>
           <t>exp_num</t>
         </is>
       </c>
-      <c r="B157" t="n">
+      <c r="B162" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="inlineStr">
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
         <is>
           <t>flam_density_of_heat_flux</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B163" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="inlineStr">
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
         <is>
           <t>flam</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="inlineStr">
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
         <is>
           <t>flam_time</t>
         </is>
       </c>
-      <c r="B160" t="n">
+      <c r="B165" t="n">
         <v>363</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="inlineStr">
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
         <is>
           <t>flam_dop_inf</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>0' – начало испытания;
 0'51” – дымовыделение от поверхности образца;
@@ -1917,55 +1981,55 @@
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="inlineStr">
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
         <is>
           <t>exp_num</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="B167" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="inlineStr">
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
         <is>
           <t>flam_density_of_heat_flux</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B168" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
         <is>
           <t>flam</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
         <is>
           <t>flam_time</t>
         </is>
       </c>
-      <c r="B165" t="n">
+      <c r="B170" t="n">
         <v>390</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
         <is>
           <t>flam_dop_inf</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>0' – начало испытания;
 0'48” – дымовыделение от поверхности образца;
@@ -1979,53 +2043,53 @@
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
         <is>
           <t>exp_num</t>
         </is>
       </c>
-      <c r="B167" t="n">
+      <c r="B172" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
         <is>
           <t>flam_density_of_heat_flux</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B173" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
         <is>
           <t>flam</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
         <is>
           <t>flam_time</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
+      <c r="B175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
         <is>
           <t>flam_dop_inf</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>0' – начало испытания;
 1'33” – плавление в точке прикосновения источника зажигания;
@@ -2041,53 +2105,53 @@
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
         <is>
           <t>exp_num</t>
         </is>
       </c>
-      <c r="B172" t="n">
+      <c r="B177" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="inlineStr">
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
         <is>
           <t>flam_density_of_heat_flux</t>
         </is>
       </c>
-      <c r="B173" t="n">
+      <c r="B178" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="inlineStr">
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
         <is>
           <t>flam</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="inlineStr">
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
         <is>
           <t>flam_time</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="inlineStr">
+      <c r="B180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
         <is>
           <t>flam_dop_inf</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>0' – начало испытания;
 1'40” – дымовыделение от поверхности образца;
@@ -2102,53 +2166,53 @@
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
         <is>
           <t>exp_num</t>
         </is>
       </c>
-      <c r="B177" t="n">
+      <c r="B182" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
         <is>
           <t>flam_density_of_heat_flux</t>
         </is>
       </c>
-      <c r="B178" t="n">
+      <c r="B183" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="inlineStr">
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
         <is>
           <t>flam</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
         <is>
           <t>flam_time</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
+      <c r="B185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
         <is>
           <t>flam_dop_inf</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>0' – начало испытания;
 1'40” – дымовыделение от поверхности образца;
@@ -2163,55 +2227,15 @@
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>exp_num</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>flam_density_of_heat_flux</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>flam</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>flam_time</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>flam_dop_inf</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr"/>
-    </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
           <t>exp_num</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr"/>
+      <c r="B187" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -2456,7 +2480,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>critical_density_of_heat_flux</t>
+          <t>flam_density_of_heat_flux</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -2464,10 +2488,50 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
+          <t>flam</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>flam_time</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>flam_dop_inf</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>exp_num</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>critical_density_of_heat_flux</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
           <t>group_of_flam</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr"/>
+      <c r="B224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
